--- a/medicine/Pharmacie/Omega_Pharma/Omega_Pharma.xlsx
+++ b/medicine/Pharmacie/Omega_Pharma/Omega_Pharma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Omega Pharma est une entreprise pharmaceutique belge fondée en 1987 qui produit et commercialise des médicaments en vente libre (over-the-counter)[réf. souhaitée]. Elle était cotée sur Euronext Belgique, indice BEL20, jusqu'au 29 décembre 2011.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été fondée en 1987 à Nazareth par deux anciens élèves de l'Université de Gand : Marc Coucke et Yvan Vindevogel.
-En novembre 2014, Perrigo annonce l'acquisition de l'entreprise belge Omega Pharma pour 2,48 milliards d'euros[3].
+En novembre 2014, Perrigo annonce l'acquisition de l'entreprise belge Omega Pharma pour 2,48 milliards d'euros.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Critiques et procès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, à la suite de la commercialisation d'une puce censée réduire de façon significative les émissions de micro-ondes des smartphones, l'E-Waves Phone Chip, la société Omega Pharma est accusée de non-respect de l'éthique et de publicité mensongère par Test-Achat, un laboratoire indépendant belge[4].
-En 2016, à la suite du rachat d'Omega Pharma par le groupe pharmaceutique américain Perrigo, ce dernier réclame 50 millions d'euros de dédommagements à son ancien patron, Marc Coucke, l'accusant d'avoir triché sur la comptabilité du groupe[5]. Deux ans plus tard, en février 2018, l'entreprise pharmaceutique américano-israélienne Perrigo réclame au moins 1,9 milliard d'euros à Marc Coucke et au fond Waterland, accusant ces derniers d'avoir frauduleusement embelli les comptes d'Omega Pharma[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, à la suite de la commercialisation d'une puce censée réduire de façon significative les émissions de micro-ondes des smartphones, l'E-Waves Phone Chip, la société Omega Pharma est accusée de non-respect de l'éthique et de publicité mensongère par Test-Achat, un laboratoire indépendant belge.
+En 2016, à la suite du rachat d'Omega Pharma par le groupe pharmaceutique américain Perrigo, ce dernier réclame 50 millions d'euros de dédommagements à son ancien patron, Marc Coucke, l'accusant d'avoir triché sur la comptabilité du groupe. Deux ans plus tard, en février 2018, l'entreprise pharmaceutique américano-israélienne Perrigo réclame au moins 1,9 milliard d'euros à Marc Coucke et au fond Waterland, accusant ces derniers d'avoir frauduleusement embelli les comptes d'Omega Pharma.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Parrainage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclisme : Omega Pharma parrainait jusqu'en 2011 l'équipe cycliste professionnelle Omega Pharma-Lotto. À la suite d'un désaccord avec la loterie Belge concernant l'évolution de l'équipe, elle a ensuite parrainé l'équipe cycliste Quick-Step, devenant dès 2012 Omega Pharma-Quick-Step, puis Etixx Quick-Step en 2015, avant de rompre le parrainage fin 2016.  
 Foot : Un temps annoncé comme le futur président du club de ligue 1, Losc Lille, Marc Coucke a parrainé le club français sous le sigle Etixx, une gamme d'Omega-pharma en 2014
